--- a/biology/Botanique/François_du_Buysson/François_du_Buysson.xlsx
+++ b/biology/Botanique/François_du_Buysson/François_du_Buysson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_du_Buysson</t>
+          <t>François_du_Buysson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Charles, comte du Buysson, est un botaniste français né le 20 avril 1825 à Paray-sous-Briailles (Allier) et mort le 25 mars 1906 à Clermont-Ferrand (Puy-de-Dôme).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_du_Buysson</t>
+          <t>François_du_Buysson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du comte Julien du Buysson et de son épouse Pauline de Bonneval.
 Après avoir grandi dans la propriété familiale du Vernet située sur la commune de Broût-Vernet (Allier), où il a notamment subi l'influence de son oncle maternel, André de Bonneval, qui avait fondé là-bas une école d'agriculture basée sur les techniques les plus modernes de l'époque, François du Buysson a travaillé pendant deux ans à la comptabilité générale du ministère des Finances à Paris où il fut nommé le 2 juillet 1846. De conviction royaliste, il démissionna de cette fonction le 31 mai 1848, après le renversement de la Monarchie de Juillet.
-Retiré au château du Vernet, il se passionna pour la botanique et fit construire une serre sur sa propriété pour y faire pousser des orchidées d'espèces variées. En 1878, il fit paraître un livre sur la culture des orchidées[1] dont le manuscrit avait été récompensé à l’Exposition internationale de Cologne en 1875 et qui est toujours considéré comme un ouvrage de référence.
-François du Buysson fut l'un des fondateurs de la revue L’Orchidophile, Journal des amateurs d'orchidées[2] avec Alexandre Godefroy-Lebeuf.
+Retiré au château du Vernet, il se passionna pour la botanique et fit construire une serre sur sa propriété pour y faire pousser des orchidées d'espèces variées. En 1878, il fit paraître un livre sur la culture des orchidées dont le manuscrit avait été récompensé à l’Exposition internationale de Cologne en 1875 et qui est toujours considéré comme un ouvrage de référence.
+François du Buysson fut l'un des fondateurs de la revue L’Orchidophile, Journal des amateurs d'orchidées avec Alexandre Godefroy-Lebeuf.
 Son nom a été donné à plusieurs espèces d'orchidées, comme l'Angraecum buyssonii ou le Phalaenopsis buyssoniana.
-Marié en 1855 à Mathilde de Montaignac de Chauvance, il eut trois enfants dont les entomologistes Henri du Buysson (1856-1927) et Robert du Buysson (1861-1946)[3].
+Marié en 1855 à Mathilde de Montaignac de Chauvance, il eut trois enfants dont les entomologistes Henri du Buysson (1856-1927) et Robert du Buysson (1861-1946).
 </t>
         </is>
       </c>
